--- a/idea/test.xlsx
+++ b/idea/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github_graduate\Valkyrie\idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056981C7-037E-4FE7-8940-B1C4432273BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20509B6B-5BB6-4D7C-A57D-39B3F51932BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" tabRatio="899" xr2:uid="{851E34BE-B808-48DD-B322-15C9B7AE17C8}"/>
+    <workbookView xWindow="12552" yWindow="1716" windowWidth="13092" windowHeight="9912" tabRatio="899" xr2:uid="{851E34BE-B808-48DD-B322-15C9B7AE17C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Raman Metadata" sheetId="1" r:id="rId1"/>
